--- a/DataFrames/问题4_详细分析报告.xlsx
+++ b/DataFrames/问题4_详细分析报告.xlsx
@@ -463,7 +463,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>最优产能: 9,503 立方米/周</t>
+          <t>最优产能: 57,304 立方米/周</t>
         </is>
       </c>
     </row>
@@ -473,7 +473,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>提升幅度: -66.3%</t>
+          <t>提升幅度: 103.2%</t>
         </is>
       </c>
     </row>
@@ -514,7 +514,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>总供应商数: 7家</t>
+          <t>总供应商数: 69家</t>
         </is>
       </c>
     </row>
@@ -524,7 +524,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>A类供应商: 3家</t>
+          <t>A类供应商: 40家</t>
         </is>
       </c>
     </row>
@@ -534,7 +534,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>B类供应商: 2家</t>
+          <t>B类供应商: 27家</t>
         </is>
       </c>
     </row>
@@ -585,7 +585,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>总运输量: 451,598 立方米</t>
+          <t>总运输量: 1,094,400 立方米</t>
         </is>
       </c>
     </row>
@@ -595,7 +595,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>总损耗量: 2,576 立方米</t>
+          <t>总损耗量: 14,327 立方米</t>
         </is>
       </c>
     </row>
@@ -605,7 +605,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>平均损耗率: 0.57%</t>
+          <t>平均损耗率: 1.31%</t>
         </is>
       </c>
     </row>

--- a/DataFrames/问题4_详细分析报告.xlsx
+++ b/DataFrames/问题4_详细分析报告.xlsx
@@ -463,7 +463,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>最优产能: 57,304 立方米/周</t>
+          <t>最优产能: 57,218 立方米/周</t>
         </is>
       </c>
     </row>
@@ -473,7 +473,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>提升幅度: 103.2%</t>
+          <t>提升幅度: 102.9%</t>
         </is>
       </c>
     </row>
@@ -514,7 +514,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>总供应商数: 69家</t>
+          <t>总供应商数: 37家</t>
         </is>
       </c>
     </row>
@@ -524,7 +524,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>A类供应商: 40家</t>
+          <t>A类供应商: 13家</t>
         </is>
       </c>
     </row>
@@ -534,7 +534,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>B类供应商: 27家</t>
+          <t>B类供应商: 6家</t>
         </is>
       </c>
     </row>
@@ -544,7 +544,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>C类供应商: 2家</t>
+          <t>C类供应商: 18家</t>
         </is>
       </c>
     </row>
@@ -585,7 +585,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>总运输量: 1,094,400 立方米</t>
+          <t>总运输量: 1,152,000 立方米</t>
         </is>
       </c>
     </row>
@@ -595,7 +595,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>总损耗量: 14,327 立方米</t>
+          <t>总损耗量: 15,992 立方米</t>
         </is>
       </c>
     </row>
@@ -605,7 +605,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>平均损耗率: 1.31%</t>
+          <t>平均损耗率: 1.39%</t>
         </is>
       </c>
     </row>
